--- a/resultats_ml.xlsx
+++ b/resultats_ml.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A6F4D3-1F39-4808-8344-431575D30F18}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE65E240-D5C8-3548-8A52-72837DBD62A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="9" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_ML_2310" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="ml_spé" sheetId="7" r:id="rId6"/>
     <sheet name="t6_ML_0212" sheetId="8" r:id="rId7"/>
     <sheet name="t7_ML_0912" sheetId="9" r:id="rId8"/>
+    <sheet name="t8_ML_1612" sheetId="10" r:id="rId9"/>
+    <sheet name="t9_ML_2012" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_ML_2310!$A$1:$N$1</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="512">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -1558,6 +1560,33 @@
   </si>
   <si>
     <t>11 min 42 s</t>
+  </si>
+  <si>
+    <t>13 min 37 s</t>
+  </si>
+  <si>
+    <t>9 min 23 s</t>
+  </si>
+  <si>
+    <t>34 min 42 s</t>
+  </si>
+  <si>
+    <t>4 min 44 s</t>
+  </si>
+  <si>
+    <t>22 min 28 s</t>
+  </si>
+  <si>
+    <t>3 min 4 s</t>
+  </si>
+  <si>
+    <t>7 min 28 s</t>
+  </si>
+  <si>
+    <t>10 min 8 s</t>
+  </si>
+  <si>
+    <t>7 min 33 s</t>
   </si>
 </sst>
 </file>
@@ -1576,6 +1605,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1948,14 +1978,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2089,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2134,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2179,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2224,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2269,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2584,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2629,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2674,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2764,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2809,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2854,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2899,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2944,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2989,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -3034,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -3079,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3124,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -3169,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -3214,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -3259,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -3304,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -3349,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -3394,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -3439,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3484,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -3529,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -3574,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -3619,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3664,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -3709,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -3754,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -3799,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -3844,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -3889,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -3934,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -3979,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -4024,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -4069,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -4114,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4159,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -4204,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -4249,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -4294,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -4339,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4384,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -4429,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -4474,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -4519,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -4564,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -4609,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -4654,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -4699,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -4744,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -4789,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -4834,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -4879,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -4924,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -4969,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -5014,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -5059,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -5104,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -5149,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -5194,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5239,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -5284,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -5329,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -5374,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -5419,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -5464,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -5509,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -5554,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>236</v>
       </c>
@@ -5599,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -5644,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -5689,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -5734,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5779,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5824,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -5869,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -5914,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5959,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -6004,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -6049,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>263</v>
       </c>
@@ -6094,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>265</v>
       </c>
@@ -6139,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -6184,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -6229,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>273</v>
       </c>
@@ -6274,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>276</v>
       </c>
@@ -6319,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>278</v>
       </c>
@@ -6364,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>281</v>
       </c>
@@ -6409,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>283</v>
       </c>
@@ -6454,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>283</v>
       </c>
@@ -6499,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>287</v>
       </c>
@@ -6544,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -6589,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>293</v>
       </c>
@@ -6634,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>296</v>
       </c>
@@ -6679,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>299</v>
       </c>
@@ -6724,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -6769,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>302</v>
       </c>
@@ -6814,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>305</v>
       </c>
@@ -6859,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -6904,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>310</v>
       </c>
@@ -6957,6 +6987,200 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA70EEB-83A6-9441-8261-141F0324ADBF}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">A3&amp;B3</f>
+        <v>CHIEN-CHOW-CHINEJules</v>
+      </c>
+      <c r="D3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4">
+        <v>8.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6971,14 +7195,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7022,7 +7246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -7067,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -7112,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7157,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -7202,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7247,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7292,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -7337,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -7382,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -7472,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -7517,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -7562,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -7607,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -7652,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -7697,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -7742,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -7787,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -7832,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -7877,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -7922,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -7967,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -8012,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -8057,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -8102,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -8147,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -8192,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -8237,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -8282,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -8327,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -8372,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>345</v>
       </c>
@@ -8411,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -8456,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -8501,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -8546,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>236</v>
       </c>
@@ -8591,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -8636,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -8681,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>352</v>
       </c>
@@ -8726,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>247</v>
       </c>
@@ -8771,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -8816,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>267</v>
       </c>
@@ -8861,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>273</v>
       </c>
@@ -8906,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>278</v>
       </c>
@@ -8951,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>281</v>
       </c>
@@ -8996,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>283</v>
       </c>
@@ -9041,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>290</v>
       </c>
@@ -9086,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -9131,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>296</v>
       </c>
@@ -9176,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -9221,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -9288,14 +9512,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9339,7 +9563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -9384,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -9429,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -9474,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -9519,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -9564,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -9609,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -9654,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -9699,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -9744,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9789,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -9834,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -9879,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -9924,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -9969,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -10014,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -10059,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -10104,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -10149,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -10194,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -10239,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -10284,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -10329,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -10374,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -10419,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -10464,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -10509,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -10554,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -10599,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -10644,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>352</v>
       </c>
@@ -10689,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -10734,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -10779,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>403</v>
       </c>
@@ -10824,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -10869,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>267</v>
       </c>
@@ -10914,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>281</v>
       </c>
@@ -10959,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>283</v>
       </c>
@@ -11004,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>290</v>
       </c>
@@ -11049,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>296</v>
       </c>
@@ -11094,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -11139,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -11206,15 +11430,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11258,7 +11482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>370</v>
       </c>
@@ -11303,7 +11527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>315</v>
       </c>
@@ -11348,7 +11572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>373</v>
       </c>
@@ -11393,7 +11617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>419</v>
       </c>
@@ -11438,7 +11662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -11483,7 +11707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -11528,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>427</v>
       </c>
@@ -11573,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -11618,7 +11842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -11663,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>434</v>
       </c>
@@ -11708,7 +11932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>110</v>
       </c>
@@ -11753,7 +11977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -11798,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -11843,7 +12067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -11888,7 +12112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -11933,7 +12157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -11978,7 +12202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>185</v>
       </c>
@@ -12023,7 +12247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>188</v>
       </c>
@@ -12068,7 +12292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
@@ -12113,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>223</v>
       </c>
@@ -12158,7 +12382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>233</v>
       </c>
@@ -12203,7 +12427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>236</v>
       </c>
@@ -12248,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>247</v>
       </c>
@@ -12293,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>260</v>
       </c>
@@ -12338,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>281</v>
       </c>
@@ -12383,7 +12607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>283</v>
       </c>
@@ -12449,15 +12673,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12498,7 +12722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>247</v>
       </c>
@@ -12540,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>469</v>
       </c>
@@ -12582,7 +12806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>472</v>
       </c>
@@ -12624,7 +12848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>260</v>
       </c>
@@ -12666,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>205</v>
       </c>
@@ -12708,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>290</v>
       </c>
@@ -12750,7 +12974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>373</v>
       </c>
@@ -12792,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -12834,7 +13058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>236</v>
       </c>
@@ -12876,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -12918,7 +13142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -12960,7 +13184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>475</v>
       </c>
@@ -13002,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -13044,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>477</v>
       </c>
@@ -13086,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>321</v>
       </c>
@@ -13128,7 +13352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -13170,7 +13394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -13228,15 +13452,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13277,7 +13501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
@@ -13319,7 +13543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -13361,7 +13585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -13419,17 +13643,17 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13470,7 +13694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -13512,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -13554,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -13596,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -13638,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -13680,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -13722,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>373</v>
       </c>
@@ -13764,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -13806,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -13848,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -13899,13 +14123,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F26B10-E4A7-4B13-B46F-688121A4852C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13949,7 +14173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -13994,7 +14218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -14039,7 +14263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>472</v>
       </c>
@@ -14084,7 +14308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
@@ -14129,7 +14353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>236</v>
       </c>
@@ -14174,7 +14398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>484</v>
       </c>
@@ -14219,7 +14443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>373</v>
       </c>
@@ -14264,7 +14488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -14309,7 +14533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>496</v>
       </c>
@@ -14354,7 +14578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>179</v>
       </c>
@@ -14399,7 +14623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
@@ -14444,7 +14668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>201</v>
       </c>
@@ -14487,6 +14711,340 @@
       </c>
       <c r="N13" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2545E7-E6B1-404A-9269-D0514FF68EE0}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>ERIPRETPaul</v>
+      </c>
+      <c r="D2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C7" si="0">A3&amp;B3</f>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>LEKANGA MBOMAAmassa Roland Nathanael</v>
+      </c>
+      <c r="D4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F4">
+        <v>8.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHIEN-CHOW-CHINEJules</v>
+      </c>
+      <c r="D7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
